--- a/special_sections/bonded_concrete_overlay/excel_files/bonded_overlay_info.xlsx
+++ b/special_sections/bonded_concrete_overlay/excel_files/bonded_overlay_info.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28724"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_77CD01EAF613C8264F2C4C1A155B041E6C0E8D19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67FFB54E-A12D-411D-BA6B-E02748B9B181}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://texastechuniversity-my.sharepoint.com/personal/samuel_alalade_ttu_edu/Documents/Research/PhD/0-7147/Tasks/Task 9/Shared FIles/rpdb/sections_info/special_sections/bonded_concrete_overlay/excel_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_77CD01EAF613C8264F2C4C1A155B041E6C0E8D19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4741DBF3-9EE1-4188-9761-1C5ADB776947}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="255" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="61">
   <si>
     <t>Section Data Type</t>
   </si>
@@ -205,13 +210,22 @@
   </si>
   <si>
     <t>01/01/1988</t>
+  </si>
+  <si>
+    <t>Loop 286</t>
+  </si>
+  <si>
+    <t>Loop 286[BCO]</t>
+  </si>
+  <si>
+    <t>33.6855261,-95.567279</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,11 +586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -585,7 +601,7 @@
     <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -745,7 +761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -825,7 +841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -851,7 +867,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -931,7 +947,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1011,7 +1027,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1091,7 +1107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1169,6 +1185,35 @@
       </c>
       <c r="Z8" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9">
+        <v>2023</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
